--- a/raw/necropsy/20250717_r3_GR_USDA-obex_RT-QuIC.xlsx
+++ b/raw/necropsy/20250717_r3_GR_USDA-obex_RT-QuIC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MNPRO\Desktop\RT-QuIC Data\Gage's RT-QuIC Data\2025\20250717_r3_GR_USDA-obex_RT-QuIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rowde002\Documents\Projects\usda-validation\raw\necropsy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DAEFC7F-31D5-4335-A359-351572FF323B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AD17A6-0C79-499A-8A2B-D68BEB5EC20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="1500" windowWidth="21600" windowHeight="11295" xr2:uid="{312BD9FC-8A18-431E-A89B-6685F5002F72}"/>
+    <workbookView xWindow="-28905" yWindow="105" windowWidth="14610" windowHeight="15585" xr2:uid="{312BD9FC-8A18-431E-A89B-6685F5002F72}"/>
   </bookViews>
   <sheets>
     <sheet name="Microplate Cycle 1 (0 h)" sheetId="2" r:id="rId1"/>
@@ -32,12 +32,15 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="104">
   <si>
     <t>User: USER</t>
   </si>
@@ -970,13 +973,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20DF6B9-A560-4A70-B656-DA3FCB601266}">
   <dimension ref="A3:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1365,23 +1373,23 @@
       <c r="B27" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>90</v>
+      <c r="C27" s="12">
+        <v>1973</v>
+      </c>
+      <c r="D27" s="12">
+        <v>1982</v>
+      </c>
+      <c r="E27" s="12">
+        <v>1979</v>
+      </c>
+      <c r="F27" s="12">
+        <v>1977</v>
+      </c>
+      <c r="G27" s="12">
+        <v>2274</v>
+      </c>
+      <c r="H27" s="12">
+        <v>2275</v>
       </c>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -1397,23 +1405,23 @@
       <c r="B28" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>90</v>
+      <c r="C28" s="12">
+        <v>1973</v>
+      </c>
+      <c r="D28" s="12">
+        <v>1982</v>
+      </c>
+      <c r="E28" s="12">
+        <v>1979</v>
+      </c>
+      <c r="F28" s="12">
+        <v>1977</v>
+      </c>
+      <c r="G28" s="12">
+        <v>2274</v>
+      </c>
+      <c r="H28" s="12">
+        <v>2275</v>
       </c>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
@@ -1428,23 +1436,23 @@
       <c r="B29" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>90</v>
+      <c r="C29" s="12">
+        <v>1973</v>
+      </c>
+      <c r="D29" s="12">
+        <v>1982</v>
+      </c>
+      <c r="E29" s="12">
+        <v>1979</v>
+      </c>
+      <c r="F29" s="12">
+        <v>1977</v>
+      </c>
+      <c r="G29" s="12">
+        <v>2274</v>
+      </c>
+      <c r="H29" s="12">
+        <v>2275</v>
       </c>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
@@ -1459,23 +1467,23 @@
       <c r="B30" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>90</v>
+      <c r="C30" s="12">
+        <v>1973</v>
+      </c>
+      <c r="D30" s="12">
+        <v>1982</v>
+      </c>
+      <c r="E30" s="12">
+        <v>1979</v>
+      </c>
+      <c r="F30" s="12">
+        <v>1977</v>
+      </c>
+      <c r="G30" s="12">
+        <v>2274</v>
+      </c>
+      <c r="H30" s="12">
+        <v>2275</v>
       </c>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
@@ -1490,23 +1498,23 @@
       <c r="B31" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>90</v>
+      <c r="C31" s="12">
+        <v>1973</v>
+      </c>
+      <c r="D31" s="12">
+        <v>1982</v>
+      </c>
+      <c r="E31" s="12">
+        <v>1979</v>
+      </c>
+      <c r="F31" s="12">
+        <v>1977</v>
+      </c>
+      <c r="G31" s="12">
+        <v>2274</v>
+      </c>
+      <c r="H31" s="12">
+        <v>2275</v>
       </c>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
@@ -1521,23 +1529,23 @@
       <c r="B32" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>90</v>
+      <c r="C32" s="12">
+        <v>1973</v>
+      </c>
+      <c r="D32" s="12">
+        <v>1982</v>
+      </c>
+      <c r="E32" s="12">
+        <v>1979</v>
+      </c>
+      <c r="F32" s="12">
+        <v>1977</v>
+      </c>
+      <c r="G32" s="12">
+        <v>2274</v>
+      </c>
+      <c r="H32" s="12">
+        <v>2275</v>
       </c>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
@@ -1552,23 +1560,23 @@
       <c r="B33" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="H33" s="14" t="s">
-        <v>90</v>
+      <c r="C33" s="12">
+        <v>1973</v>
+      </c>
+      <c r="D33" s="12">
+        <v>1982</v>
+      </c>
+      <c r="E33" s="12">
+        <v>1979</v>
+      </c>
+      <c r="F33" s="12">
+        <v>1977</v>
+      </c>
+      <c r="G33" s="12">
+        <v>2274</v>
+      </c>
+      <c r="H33" s="12">
+        <v>2275</v>
       </c>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
@@ -1583,23 +1591,23 @@
       <c r="B34" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>90</v>
+      <c r="C34" s="12">
+        <v>1973</v>
+      </c>
+      <c r="D34" s="12">
+        <v>1982</v>
+      </c>
+      <c r="E34" s="12">
+        <v>1979</v>
+      </c>
+      <c r="F34" s="12">
+        <v>1977</v>
+      </c>
+      <c r="G34" s="12">
+        <v>2274</v>
+      </c>
+      <c r="H34" s="12">
+        <v>2275</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
